--- a/labwork4/Чек-лист.xlsx
+++ b/labwork4/Чек-лист.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="9480" windowHeight="2550"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="9480" windowHeight="2490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="357">
   <si>
     <t>N/A</t>
   </si>
@@ -275,33 +275,12 @@
     <t>2.5</t>
   </si>
   <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.7.1</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.8.1</t>
-  </si>
-  <si>
     <t>V1.01</t>
   </si>
   <si>
     <t>2.3.2.2</t>
   </si>
   <si>
-    <t>2.3.2.2.1</t>
-  </si>
-  <si>
-    <t>2.3.3.2.2</t>
-  </si>
-  <si>
-    <t>2.3.3.2.3</t>
-  </si>
-  <si>
     <t>Текущая запись сохраняется нажатием кнопки "Сохранить"</t>
   </si>
   <si>
@@ -315,9 +294,6 @@
   </si>
   <si>
     <t>1.4.2</t>
-  </si>
-  <si>
-    <t>1.5.3</t>
   </si>
   <si>
     <t>1.6</t>
@@ -478,9 +454,6 @@
   </si>
   <si>
     <t>Поле "Исполнитель ФИО"</t>
-  </si>
-  <si>
-    <t>1.10</t>
   </si>
   <si>
     <t>Поле "Статус"</t>
@@ -596,66 +569,6 @@
     <t>Переход к списку задач после нажатия кнопки "Отменить"</t>
   </si>
   <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>6.10</t>
-  </si>
-  <si>
-    <t>6.11</t>
-  </si>
-  <si>
-    <t>6.4.1</t>
-  </si>
-  <si>
-    <t>6.4.2</t>
-  </si>
-  <si>
-    <t>6.5.1</t>
-  </si>
-  <si>
-    <t>6.5.2</t>
-  </si>
-  <si>
-    <t>6.5.3</t>
-  </si>
-  <si>
-    <t>6.5.4</t>
-  </si>
-  <si>
-    <t>6.6.1</t>
-  </si>
-  <si>
-    <t>6.6.2</t>
-  </si>
-  <si>
-    <t>6.6.3</t>
-  </si>
-  <si>
-    <t>6.6.4</t>
-  </si>
-  <si>
     <t>Форма список задач</t>
   </si>
   <si>
@@ -666,9 +579,6 @@
   </si>
   <si>
     <t>2.3.2.1</t>
-  </si>
-  <si>
-    <t>6.4.3</t>
   </si>
   <si>
     <t>3.2</t>
@@ -707,15 +617,510 @@
   <si>
     <t>При сохранении задачи с некорректными значениями, выводит сообщения об ошибке</t>
   </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>2.2.1.1</t>
+  </si>
+  <si>
+    <t>2.2.1.2</t>
+  </si>
+  <si>
+    <t>2.2.1.3</t>
+  </si>
+  <si>
+    <t>2.2.1.4</t>
+  </si>
+  <si>
+    <t>2.2.1.5</t>
+  </si>
+  <si>
+    <t>2.2.1.6</t>
+  </si>
+  <si>
+    <t>2.2.1.7</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>2.2.2.1</t>
+  </si>
+  <si>
+    <t>2.2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.3.1</t>
+  </si>
+  <si>
+    <t>2.2.3.2</t>
+  </si>
+  <si>
+    <t>2.2.3.3</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
+    <t>2.2.4.1</t>
+  </si>
+  <si>
+    <t>2.3.3.1</t>
+  </si>
+  <si>
+    <t>2.3.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3.3</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>2.3.4.1</t>
+  </si>
+  <si>
+    <t>2.4.1.1</t>
+  </si>
+  <si>
+    <t>2.4.1.2</t>
+  </si>
+  <si>
+    <t>2.4.1.3</t>
+  </si>
+  <si>
+    <t>2.4.1.4</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>2.4.2.1</t>
+  </si>
+  <si>
+    <t>2.4.2.2</t>
+  </si>
+  <si>
+    <t>2.4.2.3</t>
+  </si>
+  <si>
+    <t>2.4.2.4</t>
+  </si>
+  <si>
+    <t>2.4.2.5</t>
+  </si>
+  <si>
+    <t>2.4.3</t>
+  </si>
+  <si>
+    <t>2.4.3.1</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>2.5.3</t>
+  </si>
+  <si>
+    <t>2.5.4</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>3.4.2</t>
+  </si>
+  <si>
+    <t>3.4.3</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.5.1</t>
+  </si>
+  <si>
+    <t>3.5.2</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.6.1</t>
+  </si>
+  <si>
+    <t>3.6.2</t>
+  </si>
+  <si>
+    <t>3.6.3</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.7.1</t>
+  </si>
+  <si>
+    <t>3.7.2</t>
+  </si>
+  <si>
+    <t>3.7.3</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.8.1</t>
+  </si>
+  <si>
+    <t>3.8.2</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.9.1</t>
+  </si>
+  <si>
+    <t>3.9.2</t>
+  </si>
+  <si>
+    <t>4.10.1</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>4.10.2</t>
+  </si>
+  <si>
+    <t>4.10.3</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>4.11.1</t>
+  </si>
+  <si>
+    <t>4.11.2</t>
+  </si>
+  <si>
+    <t>4.11.3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.2.1</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.3.1</t>
+  </si>
+  <si>
+    <t>5.3.2</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.4.1</t>
+  </si>
+  <si>
+    <t>5.4.1.1</t>
+  </si>
+  <si>
+    <t>5.4.1.2</t>
+  </si>
+  <si>
+    <t>5.4.1.3</t>
+  </si>
+  <si>
+    <t>5.4.1.4</t>
+  </si>
+  <si>
+    <t>5.4.1.5</t>
+  </si>
+  <si>
+    <t>5.4.1.6</t>
+  </si>
+  <si>
+    <t>5.4.1.7</t>
+  </si>
+  <si>
+    <t>5.4.2</t>
+  </si>
+  <si>
+    <t>5.4.2.1</t>
+  </si>
+  <si>
+    <t>5.4.3</t>
+  </si>
+  <si>
+    <t>5.4.3.1</t>
+  </si>
+  <si>
+    <t>5.4.3.2</t>
+  </si>
+  <si>
+    <t>5.4.3.3</t>
+  </si>
+  <si>
+    <t>5.4.4</t>
+  </si>
+  <si>
+    <t>5.4.4.1</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.5.1</t>
+  </si>
+  <si>
+    <t>5.5.1.1</t>
+  </si>
+  <si>
+    <t>5.5.1.2</t>
+  </si>
+  <si>
+    <t>5.5.1.3</t>
+  </si>
+  <si>
+    <t>5.5.1.4</t>
+  </si>
+  <si>
+    <t>5.5.2</t>
+  </si>
+  <si>
+    <t>5.5.2.1</t>
+  </si>
+  <si>
+    <t>5.5.2.2</t>
+  </si>
+  <si>
+    <t>5.5.2.3</t>
+  </si>
+  <si>
+    <t>5.5.3</t>
+  </si>
+  <si>
+    <t>5.5.3.1</t>
+  </si>
+  <si>
+    <t>5.5.4</t>
+  </si>
+  <si>
+    <t>5.5.4.1</t>
+  </si>
+  <si>
+    <t>5.5.4.2</t>
+  </si>
+  <si>
+    <t>5.5.4.3</t>
+  </si>
+  <si>
+    <t>5.5.5</t>
+  </si>
+  <si>
+    <t>5.5.5.1</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.6.1</t>
+  </si>
+  <si>
+    <t>5.6.1.1</t>
+  </si>
+  <si>
+    <t>5.6.1.2</t>
+  </si>
+  <si>
+    <t>5.6.1.3</t>
+  </si>
+  <si>
+    <t>5.6.1.4</t>
+  </si>
+  <si>
+    <t>5.6.2</t>
+  </si>
+  <si>
+    <t>5.6.2.1</t>
+  </si>
+  <si>
+    <t>5.6.2.2</t>
+  </si>
+  <si>
+    <t>5.6.2.3</t>
+  </si>
+  <si>
+    <t>5.6.3</t>
+  </si>
+  <si>
+    <t>5.6.3.1</t>
+  </si>
+  <si>
+    <t>5.6.3.2</t>
+  </si>
+  <si>
+    <t>5.6.4</t>
+  </si>
+  <si>
+    <t>5.6.4.1</t>
+  </si>
+  <si>
+    <t>5.6.4.2</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>5.7.1</t>
+  </si>
+  <si>
+    <t>5.7.1.1</t>
+  </si>
+  <si>
+    <t>5.7.1.2</t>
+  </si>
+  <si>
+    <t>5.7.1.3</t>
+  </si>
+  <si>
+    <t>5.7.1.4</t>
+  </si>
+  <si>
+    <t>5.7.2</t>
+  </si>
+  <si>
+    <t>5.7.2.1</t>
+  </si>
+  <si>
+    <t>5.7.2.2</t>
+  </si>
+  <si>
+    <t>5.7.2.3</t>
+  </si>
+  <si>
+    <t>5.7.3</t>
+  </si>
+  <si>
+    <t>5.7.3.1</t>
+  </si>
+  <si>
+    <t>5.7.3.2</t>
+  </si>
+  <si>
+    <t>5.7.4</t>
+  </si>
+  <si>
+    <t>5.7.4.1</t>
+  </si>
+  <si>
+    <t>5.7.4.2</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>5.8.1</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>5.9.1</t>
+  </si>
+  <si>
+    <t>5.9.2</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>5.10.1</t>
+  </si>
+  <si>
+    <t>5.10.2</t>
+  </si>
+  <si>
+    <t>5.10.3</t>
+  </si>
+  <si>
+    <t>5.10.4</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>5.11.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1232,7 +1637,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1468,6 +1873,148 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1476,39 +2023,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,120 +2041,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1653,11 +2061,16 @@
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Легенда"/>
@@ -1754,6 +2167,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1788,6 +2202,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1963,14 +2378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -1979,138 +2394,138 @@
     <col min="5" max="5" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-    </row>
-    <row r="3" spans="1:7" ht="45" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1">
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="87"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="C5" s="134"/>
+      <c r="D5" s="135"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="85" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="B6" s="133" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-    </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="89" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="126"/>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="129"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" s="131"/>
+      <c r="D9" s="132"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="C10" s="131"/>
+      <c r="D10" s="132"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" s="131"/>
+      <c r="D11" s="132"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="C12" s="131"/>
+      <c r="D12" s="132"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-    </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="89" t="s">
+      <c r="C13" s="131"/>
+      <c r="D13" s="132"/>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-    </row>
-    <row r="15" spans="1:7" s="9" customFormat="1">
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="138"/>
+    </row>
+    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
@@ -2124,12 +2539,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="9" customFormat="1">
+    <row r="16" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
@@ -2140,11 +2555,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -2153,26 +2563,31 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J235"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C217" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C186" sqref="C186"/>
+      <selection pane="bottomRight" activeCell="F225" sqref="F225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="24" customWidth="1"/>
     <col min="2" max="2" width="67.42578125" style="33" customWidth="1"/>
@@ -2182,25 +2597,25 @@
     <col min="11" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25">
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="101"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="D1" s="140"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
@@ -2214,7 +2629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>1</v>
       </c>
@@ -2224,67 +2639,67 @@
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
     </row>
-    <row r="5" spans="1:7" ht="75">
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="25"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="42"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="25"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C9" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="25"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>63</v>
@@ -2292,84 +2707,84 @@
       <c r="C10" s="54"/>
       <c r="D10" s="42"/>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="G12" s="132"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="110"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B13" s="61" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="62"/>
       <c r="D13" s="42"/>
-      <c r="G13" s="132"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="110"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C14" s="67" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="59"/>
-      <c r="G14" s="132"/>
-    </row>
-    <row r="15" spans="1:7" ht="30">
+      <c r="G14" s="110"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C15" s="67" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="59"/>
-      <c r="G15" s="132"/>
-    </row>
-    <row r="16" spans="1:7" ht="30">
+      <c r="G15" s="110"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C16" s="69" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="59"/>
-      <c r="G16" s="132"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="G16" s="110"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>64</v>
@@ -2377,33 +2792,33 @@
       <c r="C17" s="65"/>
       <c r="D17" s="42"/>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="25"/>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C19" s="48" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="25"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>45</v>
@@ -2411,45 +2826,45 @@
       <c r="C20" s="49"/>
       <c r="D20" s="42"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C21" s="56" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="36"/>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C22" s="56" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="36"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C23" s="56" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="36"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B24" s="47" t="s">
         <v>43</v>
@@ -2457,91 +2872,91 @@
       <c r="C24" s="57"/>
       <c r="D24" s="42"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="25"/>
     </row>
-    <row r="26" spans="1:4" ht="30">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C26" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="25"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C27" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="25"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C28" s="57"/>
       <c r="D28" s="42"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C29" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="25"/>
     </row>
-    <row r="30" spans="1:4" ht="30">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C30" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="25"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C31" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B32" s="47" t="s">
         <v>57</v>
@@ -2549,43 +2964,43 @@
       <c r="C32" s="57"/>
       <c r="D32" s="42"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C33" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="25"/>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C34" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="25"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C35" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="25"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
         <v>66</v>
       </c>
@@ -2595,9 +3010,9 @@
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="B37" s="41" t="s">
         <v>45</v>
@@ -2605,9 +3020,9 @@
       <c r="C37" s="49"/>
       <c r="D37" s="42"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>46</v>
@@ -2617,9 +3032,9 @@
       </c>
       <c r="D38" s="36"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>47</v>
@@ -2629,9 +3044,9 @@
       </c>
       <c r="D39" s="36"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="61" t="s">
         <v>43</v>
@@ -2639,9 +3054,9 @@
       <c r="C40" s="70"/>
       <c r="D40" s="71"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="B41" s="74" t="s">
         <v>49</v>
@@ -2649,9 +3064,9 @@
       <c r="C41" s="75"/>
       <c r="D41" s="76"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="66" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="B42" s="66" t="s">
         <v>33</v>
@@ -2661,9 +3076,9 @@
       </c>
       <c r="D42" s="77"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="66" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="B43" s="66" t="s">
         <v>34</v>
@@ -2673,9 +3088,9 @@
       </c>
       <c r="D43" s="77"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="66" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="B44" s="66" t="s">
         <v>48</v>
@@ -2685,9 +3100,9 @@
       </c>
       <c r="D44" s="77"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="66" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="B45" s="66" t="s">
         <v>35</v>
@@ -2697,9 +3112,9 @@
       </c>
       <c r="D45" s="77"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="66" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="B46" s="66" t="s">
         <v>52</v>
@@ -2709,33 +3124,33 @@
       </c>
       <c r="D46" s="77"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="66" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C47" s="78" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="77"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="66" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C48" s="78" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="77"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="B49" s="74" t="s">
         <v>50</v>
@@ -2743,21 +3158,21 @@
       <c r="C49" s="75"/>
       <c r="D49" s="76"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="B50" s="79" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C50" s="69" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="80"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="66" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="B51" s="66" t="s">
         <v>38</v>
@@ -2767,9 +3182,9 @@
       </c>
       <c r="D51" s="77"/>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="130" t="s">
-        <v>209</v>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="108" t="s">
+        <v>204</v>
       </c>
       <c r="B52" s="74" t="s">
         <v>42</v>
@@ -2777,9 +3192,9 @@
       <c r="C52" s="75"/>
       <c r="D52" s="76"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="66" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B53" s="66" t="s">
         <v>40</v>
@@ -2789,8 +3204,10 @@
       </c>
       <c r="D53" s="77"/>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="66"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="66" t="s">
+        <v>208</v>
+      </c>
       <c r="B54" s="66" t="s">
         <v>41</v>
       </c>
@@ -2799,8 +3216,10 @@
       </c>
       <c r="D54" s="77"/>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="66"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="66" t="s">
+        <v>209</v>
+      </c>
       <c r="B55" s="66" t="s">
         <v>39</v>
       </c>
@@ -2809,29 +3228,31 @@
       </c>
       <c r="D55" s="77"/>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="122" t="s">
-        <v>215</v>
-      </c>
-      <c r="B56" s="123" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="131"/>
-      <c r="D56" s="125"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="66"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="103"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="66" t="s">
+        <v>211</v>
+      </c>
       <c r="B57" s="66" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C57" s="69" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="77"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="64" t="s">
         <v>44</v>
@@ -2839,9 +3260,9 @@
       <c r="C58" s="72"/>
       <c r="D58" s="73"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B59" s="74" t="s">
         <v>49</v>
@@ -2849,7 +3270,7 @@
       <c r="C59" s="75"/>
       <c r="D59" s="76"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="66" t="s">
         <v>74</v>
       </c>
@@ -2861,7 +3282,7 @@
       </c>
       <c r="D60" s="77"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="66" t="s">
         <v>75</v>
       </c>
@@ -2873,7 +3294,7 @@
       </c>
       <c r="D61" s="77"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="66" t="s">
         <v>76</v>
       </c>
@@ -2885,7 +3306,7 @@
       </c>
       <c r="D62" s="77"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="66" t="s">
         <v>77</v>
       </c>
@@ -2897,7 +3318,7 @@
       </c>
       <c r="D63" s="77"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="66" t="s">
         <v>78</v>
       </c>
@@ -2909,33 +3330,33 @@
       </c>
       <c r="D64" s="77"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="66" t="s">
         <v>79</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C65" s="78" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="77"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="66" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C66" s="78" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="77"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="B67" s="74" t="s">
         <v>50</v>
@@ -2943,18 +3364,22 @@
       <c r="C67" s="75"/>
       <c r="D67" s="76"/>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="45"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="45" t="s">
+        <v>181</v>
+      </c>
       <c r="B68" s="79" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C68" s="69" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="80"/>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="66"/>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="66" t="s">
+        <v>85</v>
+      </c>
       <c r="B69" s="66" t="s">
         <v>38</v>
       </c>
@@ -2963,9 +3388,9 @@
       </c>
       <c r="D69" s="77"/>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="74" t="s">
-        <v>89</v>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
+        <v>185</v>
       </c>
       <c r="B70" s="74" t="s">
         <v>42</v>
@@ -2973,9 +3398,9 @@
       <c r="C70" s="75"/>
       <c r="D70" s="76"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="66" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="B71" s="66" t="s">
         <v>40</v>
@@ -2985,9 +3410,9 @@
       </c>
       <c r="D71" s="77"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="66" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="B72" s="66" t="s">
         <v>41</v>
@@ -2997,9 +3422,9 @@
       </c>
       <c r="D72" s="77"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="66" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="B73" s="66" t="s">
         <v>39</v>
@@ -3009,29 +3434,31 @@
       </c>
       <c r="D73" s="77"/>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="122" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="100" t="s">
         <v>215</v>
       </c>
-      <c r="B74" s="123" t="s">
+      <c r="B74" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="131"/>
-      <c r="D74" s="125"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="66"/>
+      <c r="C74" s="109"/>
+      <c r="D74" s="103"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="66" t="s">
+        <v>216</v>
+      </c>
       <c r="B75" s="66" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C75" s="69" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="77"/>
     </row>
-    <row r="76" spans="1:4" outlineLevel="1">
+    <row r="76" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B76" s="47" t="s">
         <v>57</v>
@@ -3039,9 +3466,9 @@
       <c r="C76" s="49"/>
       <c r="D76" s="42"/>
     </row>
-    <row r="77" spans="1:4" outlineLevel="1">
+    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="B77" s="74" t="s">
         <v>49</v>
@@ -3049,9 +3476,9 @@
       <c r="C77" s="75"/>
       <c r="D77" s="76"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="66" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="B78" s="66" t="s">
         <v>33</v>
@@ -3061,9 +3488,9 @@
       </c>
       <c r="D78" s="77"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="66" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="B79" s="66" t="s">
         <v>34</v>
@@ -3073,9 +3500,9 @@
       </c>
       <c r="D79" s="77"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="66" t="s">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="B80" s="66" t="s">
         <v>48</v>
@@ -3085,9 +3512,9 @@
       </c>
       <c r="D80" s="77"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="66" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="B81" s="66" t="s">
         <v>35</v>
@@ -3097,7 +3524,7 @@
       </c>
       <c r="D81" s="77"/>
     </row>
-    <row r="82" spans="1:4" outlineLevel="1">
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="66" t="s">
         <v>78</v>
       </c>
@@ -3109,33 +3536,33 @@
       </c>
       <c r="D82" s="77"/>
     </row>
-    <row r="83" spans="1:4" outlineLevel="1">
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="66" t="s">
         <v>79</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C83" s="78" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="77"/>
     </row>
-    <row r="84" spans="1:4" outlineLevel="1">
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="66" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B84" s="66" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C84" s="78" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="77"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="43" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="B85" s="74" t="s">
         <v>50</v>
@@ -3143,8 +3570,10 @@
       <c r="C85" s="75"/>
       <c r="D85" s="76"/>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="66"/>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="66" t="s">
+        <v>222</v>
+      </c>
       <c r="B86" s="66" t="s">
         <v>38</v>
       </c>
@@ -3153,9 +3582,9 @@
       </c>
       <c r="D86" s="77"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="74" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="B87" s="74" t="s">
         <v>42</v>
@@ -3163,9 +3592,9 @@
       <c r="C87" s="75"/>
       <c r="D87" s="76"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="66" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="B88" s="66" t="s">
         <v>40</v>
@@ -3175,9 +3604,9 @@
       </c>
       <c r="D88" s="77"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="66" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="B89" s="66" t="s">
         <v>41</v>
@@ -3187,9 +3616,9 @@
       </c>
       <c r="D89" s="77"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="66" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="B90" s="66" t="s">
         <v>39</v>
@@ -3199,29 +3628,31 @@
       </c>
       <c r="D90" s="77"/>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="122" t="s">
-        <v>215</v>
-      </c>
-      <c r="B91" s="123" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C91" s="131"/>
-      <c r="D91" s="125"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="66"/>
+      <c r="C91" s="109"/>
+      <c r="D91" s="103"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="66" t="s">
+        <v>228</v>
+      </c>
       <c r="B92" s="66" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C92" s="69" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="77"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B93" s="47" t="s">
         <v>81</v>
@@ -3229,47 +3660,53 @@
       <c r="C93" s="49"/>
       <c r="D93" s="42"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C94" s="56" t="s">
         <v>51</v>
       </c>
       <c r="D94" s="25"/>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="28"/>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="28" t="s">
+        <v>230</v>
+      </c>
       <c r="B95" s="44" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C95" s="56"/>
       <c r="D95" s="25"/>
     </row>
-    <row r="96" spans="1:4" ht="30">
-      <c r="A96" s="28"/>
+    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="28" t="s">
+        <v>231</v>
+      </c>
       <c r="B96" s="44" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C96" s="56" t="s">
         <v>28</v>
       </c>
       <c r="D96" s="25"/>
     </row>
-    <row r="97" spans="1:10" ht="30">
-      <c r="A97" s="28"/>
+    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="28" t="s">
+        <v>232</v>
+      </c>
       <c r="B97" s="46" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C97" s="56"/>
       <c r="D97" s="25"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="40" t="s">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="B98" s="47" t="s">
         <v>82</v>
@@ -3277,113 +3714,123 @@
       <c r="C98" s="49"/>
       <c r="D98" s="42"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C99" s="56" t="s">
         <v>51</v>
       </c>
       <c r="D99" s="25"/>
     </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="B100" s="107" t="s">
-        <v>207</v>
-      </c>
-      <c r="C100" s="105"/>
-      <c r="D100" s="106"/>
-    </row>
-    <row r="101" spans="1:10" ht="120">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="83"/>
+      <c r="D100" s="84"/>
+    </row>
+    <row r="101" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="C101" s="56" t="s">
         <v>51</v>
       </c>
       <c r="D101" s="25"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="40" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B102" s="47" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C102" s="49"/>
       <c r="D102" s="42"/>
     </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="45"/>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="45" t="s">
+        <v>235</v>
+      </c>
       <c r="B103" s="46" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C103" s="58" t="s">
         <v>62</v>
       </c>
       <c r="D103" s="25"/>
     </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="45"/>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="45" t="s">
+        <v>236</v>
+      </c>
       <c r="B104" s="46" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C104" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="25"/>
     </row>
-    <row r="105" spans="1:10" ht="30">
-      <c r="A105" s="45"/>
+    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="45" t="s">
+        <v>237</v>
+      </c>
       <c r="B105" s="46" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C105" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="25"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="40" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="B106" s="41" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C106" s="54"/>
       <c r="D106" s="42"/>
     </row>
-    <row r="107" spans="1:10" ht="30">
-      <c r="A107" s="28"/>
+    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="28" t="s">
+        <v>239</v>
+      </c>
       <c r="B107" s="32" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C107" s="56" t="s">
         <v>51</v>
       </c>
       <c r="D107" s="25"/>
     </row>
-    <row r="108" spans="1:10" ht="30">
-      <c r="A108" s="28"/>
+    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="28" t="s">
+        <v>240</v>
+      </c>
       <c r="B108" s="32" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C108" s="56" t="s">
         <v>51</v>
       </c>
       <c r="D108" s="25"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="60" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="B109" s="61" t="s">
         <v>55</v>
@@ -3391,30 +3838,36 @@
       <c r="C109" s="62"/>
       <c r="D109" s="42"/>
     </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="28"/>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="28" t="s">
+        <v>242</v>
+      </c>
       <c r="B110" s="66" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C110" s="67" t="s">
         <v>51</v>
       </c>
       <c r="D110" s="59"/>
     </row>
-    <row r="111" spans="1:10" ht="30">
-      <c r="A111" s="28"/>
+    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="28" t="s">
+        <v>243</v>
+      </c>
       <c r="B111" s="66" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C111" s="67" t="s">
         <v>51</v>
       </c>
       <c r="D111" s="59"/>
     </row>
-    <row r="112" spans="1:10" ht="30">
-      <c r="A112" s="28"/>
+    <row r="112" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="28" t="s">
+        <v>244</v>
+      </c>
       <c r="B112" s="66" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C112" s="69" t="s">
         <v>1</v>
@@ -3422,9 +3875,9 @@
       <c r="D112" s="59"/>
       <c r="J112" s="33"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="63" t="s">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c r="B113" s="64" t="s">
         <v>64</v>
@@ -3433,10 +3886,12 @@
       <c r="D113" s="42"/>
       <c r="J113" s="33"/>
     </row>
-    <row r="114" spans="1:10" ht="30">
-      <c r="A114" s="28"/>
+    <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="28" t="s">
+        <v>246</v>
+      </c>
       <c r="B114" s="32" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C114" s="48" t="s">
         <v>51</v>
@@ -3444,10 +3899,12 @@
       <c r="D114" s="25"/>
       <c r="J114" s="33"/>
     </row>
-    <row r="115" spans="1:10" ht="30">
-      <c r="A115" s="28"/>
+    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="28" t="s">
+        <v>247</v>
+      </c>
       <c r="B115" s="32" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C115" s="48" t="s">
         <v>51</v>
@@ -3455,9 +3912,9 @@
       <c r="D115" s="25"/>
       <c r="J115" s="33"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="40" t="s">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="B116" s="41" t="s">
         <v>45</v>
@@ -3466,10 +3923,12 @@
       <c r="D116" s="42"/>
       <c r="J116" s="33"/>
     </row>
-    <row r="117" spans="1:10">
-      <c r="A117" s="34"/>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="34" t="s">
+        <v>249</v>
+      </c>
       <c r="B117" s="35" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C117" s="56" t="s">
         <v>51</v>
@@ -3477,10 +3936,12 @@
       <c r="D117" s="36"/>
       <c r="J117" s="33"/>
     </row>
-    <row r="118" spans="1:10" ht="30">
-      <c r="A118" s="34"/>
+    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="34" t="s">
+        <v>250</v>
+      </c>
       <c r="B118" s="35" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C118" s="56" t="s">
         <v>28</v>
@@ -3488,10 +3949,12 @@
       <c r="D118" s="36"/>
       <c r="J118" s="33"/>
     </row>
-    <row r="119" spans="1:10" ht="30">
-      <c r="A119" s="34"/>
+    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="34" t="s">
+        <v>251</v>
+      </c>
       <c r="B119" s="35" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C119" s="56" t="s">
         <v>51</v>
@@ -3499,9 +3962,9 @@
       <c r="D119" s="36"/>
       <c r="J119" s="33"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="40" t="s">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c r="B120" s="47" t="s">
         <v>43</v>
@@ -3510,10 +3973,12 @@
       <c r="D120" s="42"/>
       <c r="J120" s="33"/>
     </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="45"/>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="45" t="s">
+        <v>253</v>
+      </c>
       <c r="B121" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C121" s="58" t="s">
         <v>51</v>
@@ -3521,10 +3986,12 @@
       <c r="D121" s="25"/>
       <c r="J121" s="33"/>
     </row>
-    <row r="122" spans="1:10" ht="30">
-      <c r="A122" s="45"/>
+    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="45" t="s">
+        <v>254</v>
+      </c>
       <c r="B122" s="46" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C122" s="58" t="s">
         <v>51</v>
@@ -3532,10 +3999,12 @@
       <c r="D122" s="25"/>
       <c r="J122" s="33"/>
     </row>
-    <row r="123" spans="1:10">
-      <c r="A123" s="45"/>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="45" t="s">
+        <v>255</v>
+      </c>
       <c r="B123" s="46" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C123" s="58" t="s">
         <v>51</v>
@@ -3543,20 +4012,22 @@
       <c r="D123" s="25"/>
       <c r="J123" s="33"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="40" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="B124" s="47" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C124" s="57"/>
       <c r="D124" s="42"/>
     </row>
-    <row r="125" spans="1:10">
-      <c r="A125" s="45"/>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="45" t="s">
+        <v>257</v>
+      </c>
       <c r="B125" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C125" s="58" t="s">
         <v>51</v>
@@ -3564,10 +4035,12 @@
       <c r="D125" s="25"/>
       <c r="F125" s="33"/>
     </row>
-    <row r="126" spans="1:10">
-      <c r="A126" s="45"/>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="45" t="s">
+        <v>258</v>
+      </c>
       <c r="B126" s="46" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C126" s="58" t="s">
         <v>51</v>
@@ -3575,199 +4048,225 @@
       <c r="D126" s="25"/>
       <c r="F126" s="33"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="40" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C127" s="57"/>
       <c r="D127" s="42"/>
     </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="45"/>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="45" t="s">
+        <v>260</v>
+      </c>
       <c r="B128" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C128" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D128" s="25"/>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="45"/>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="45" t="s">
+        <v>261</v>
+      </c>
       <c r="B129" s="46" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C129" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D129" s="25"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="40" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="B130" s="47" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C130" s="57"/>
       <c r="D130" s="42"/>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="45"/>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="45" t="s">
+        <v>262</v>
+      </c>
       <c r="B131" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C131" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D131" s="25"/>
     </row>
-    <row r="132" spans="1:4" ht="30">
-      <c r="A132" s="45"/>
+    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="45" t="s">
+        <v>264</v>
+      </c>
       <c r="B132" s="46" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C132" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D132" s="25"/>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="45"/>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="45" t="s">
+        <v>265</v>
+      </c>
       <c r="B133" s="46" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C133" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D133" s="25"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="40" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C134" s="81"/>
       <c r="D134" s="42"/>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="45"/>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="45" t="s">
+        <v>267</v>
+      </c>
       <c r="B135" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C135" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D135" s="25"/>
     </row>
-    <row r="136" spans="1:4" ht="30">
-      <c r="A136" s="45"/>
+    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="45" t="s">
+        <v>268</v>
+      </c>
       <c r="B136" s="46" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C136" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D136" s="25"/>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="108"/>
-      <c r="B137" s="109" t="s">
-        <v>133</v>
-      </c>
-      <c r="C137" s="110" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="C137" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="D137" s="111"/>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="116">
-        <v>6</v>
-      </c>
-      <c r="B138" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="C138" s="117"/>
-      <c r="D138" s="117"/>
-    </row>
-    <row r="139" spans="1:4" ht="135">
-      <c r="A139" s="114"/>
+      <c r="D137" s="89"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C138" s="95"/>
+      <c r="D138" s="95"/>
+    </row>
+    <row r="139" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A139" s="92" t="s">
+        <v>271</v>
+      </c>
       <c r="B139" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="C139" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="C139" s="90" t="s">
         <v>62</v>
       </c>
       <c r="D139" s="77"/>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="118" t="s">
-        <v>187</v>
-      </c>
-      <c r="B140" s="119" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="B140" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="C140" s="120"/>
-      <c r="D140" s="121"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="114"/>
+      <c r="C140" s="98"/>
+      <c r="D140" s="99"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="92" t="s">
+        <v>273</v>
+      </c>
       <c r="B141" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C141" s="112" t="s">
+      <c r="C141" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="D141" s="113"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="114"/>
+      <c r="D141" s="91"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="92" t="s">
+        <v>274</v>
+      </c>
       <c r="B142" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C142" s="112" t="s">
+      <c r="C142" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="D142" s="113"/>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="118" t="s">
-        <v>188</v>
-      </c>
-      <c r="B143" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="C143" s="120"/>
-      <c r="D143" s="121"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="114"/>
+      <c r="D142" s="91"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="B143" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" s="98"/>
+      <c r="D143" s="99"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="92" t="s">
+        <v>276</v>
+      </c>
       <c r="B144" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="C144" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="D144" s="113"/>
-    </row>
-    <row r="145" spans="1:4" ht="45">
-      <c r="A145" s="114"/>
+      <c r="D144" s="91"/>
+    </row>
+    <row r="145" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="92" t="s">
+        <v>277</v>
+      </c>
       <c r="B145" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C145" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="D145" s="113"/>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="D145" s="91"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="60" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="B146" s="61" t="s">
         <v>43</v>
@@ -3775,9 +4274,9 @@
       <c r="C146" s="70"/>
       <c r="D146" s="71"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="43" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="B147" s="74" t="s">
         <v>49</v>
@@ -3785,18 +4284,22 @@
       <c r="C147" s="75"/>
       <c r="D147" s="76"/>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="66"/>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="66" t="s">
+        <v>280</v>
+      </c>
       <c r="B148" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C148" s="133" t="s">
+      <c r="C148" s="111" t="s">
         <v>51</v>
       </c>
       <c r="D148" s="77"/>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="66"/>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="66" t="s">
+        <v>281</v>
+      </c>
       <c r="B149" s="66" t="s">
         <v>34</v>
       </c>
@@ -3805,8 +4308,10 @@
       </c>
       <c r="D149" s="77"/>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="66"/>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="66" t="s">
+        <v>282</v>
+      </c>
       <c r="B150" s="66" t="s">
         <v>48</v>
       </c>
@@ -3815,8 +4320,10 @@
       </c>
       <c r="D150" s="77"/>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="66"/>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="66" t="s">
+        <v>283</v>
+      </c>
       <c r="B151" s="66" t="s">
         <v>35</v>
       </c>
@@ -3825,59 +4332,67 @@
       </c>
       <c r="D151" s="77"/>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="66"/>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="66" t="s">
+        <v>284</v>
+      </c>
       <c r="B152" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C152" s="137" t="s">
+      <c r="C152" s="115" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="77"/>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="66"/>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="66" t="s">
+        <v>285</v>
+      </c>
       <c r="B153" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="C153" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" s="115" t="s">
         <v>1</v>
       </c>
       <c r="D153" s="77"/>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="66"/>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="66" t="s">
+        <v>286</v>
+      </c>
       <c r="B154" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="C154" s="137" t="s">
+        <v>112</v>
+      </c>
+      <c r="C154" s="115" t="s">
         <v>1</v>
       </c>
       <c r="D154" s="77"/>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="128" t="s">
-        <v>198</v>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="106" t="s">
+        <v>287</v>
       </c>
       <c r="B155" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C155" s="134"/>
+      <c r="C155" s="112"/>
       <c r="D155" s="76"/>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="66"/>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="66" t="s">
+        <v>288</v>
+      </c>
       <c r="B156" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C156" s="137" t="s">
+      <c r="C156" s="115" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="77"/>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="130" t="s">
-        <v>211</v>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="108" t="s">
+        <v>289</v>
       </c>
       <c r="B157" s="74" t="s">
         <v>42</v>
@@ -3885,8 +4400,10 @@
       <c r="C157" s="75"/>
       <c r="D157" s="76"/>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="66"/>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="66" t="s">
+        <v>290</v>
+      </c>
       <c r="B158" s="66" t="s">
         <v>40</v>
       </c>
@@ -3895,8 +4412,10 @@
       </c>
       <c r="D158" s="77"/>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="66"/>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="66" t="s">
+        <v>291</v>
+      </c>
       <c r="B159" s="66" t="s">
         <v>41</v>
       </c>
@@ -3905,8 +4424,10 @@
       </c>
       <c r="D159" s="77"/>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="66"/>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="66" t="s">
+        <v>292</v>
+      </c>
       <c r="B160" s="66" t="s">
         <v>39</v>
       </c>
@@ -3915,96 +4436,110 @@
       </c>
       <c r="D160" s="77"/>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="123"/>
-      <c r="B161" s="123" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="108" t="s">
+        <v>293</v>
+      </c>
+      <c r="B161" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C161" s="131"/>
-      <c r="D161" s="125"/>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="66"/>
+      <c r="C161" s="109"/>
+      <c r="D161" s="103"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="66" t="s">
+        <v>294</v>
+      </c>
       <c r="B162" s="66" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C162" s="69" t="s">
         <v>1</v>
       </c>
       <c r="D162" s="77"/>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="118" t="s">
-        <v>190</v>
-      </c>
-      <c r="B163" s="119" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="96" t="s">
+        <v>295</v>
+      </c>
+      <c r="B163" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C163" s="98"/>
+      <c r="D163" s="99"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="100" t="s">
+        <v>296</v>
+      </c>
+      <c r="B164" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C164" s="102"/>
+      <c r="D164" s="103"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="92" t="s">
+        <v>297</v>
+      </c>
+      <c r="B165" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D165" s="77"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="B166" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C166" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" s="77"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="B167" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="C163" s="120"/>
-      <c r="D163" s="121"/>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="122" t="s">
-        <v>199</v>
-      </c>
-      <c r="B164" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="C164" s="124"/>
-      <c r="D164" s="125"/>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="114"/>
-      <c r="B165" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="C165" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="D165" s="77"/>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="114"/>
-      <c r="B166" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="C166" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D166" s="77"/>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="114"/>
-      <c r="B167" s="66" t="s">
-        <v>166</v>
-      </c>
       <c r="C167" s="69" t="s">
         <v>1</v>
       </c>
       <c r="D167" s="77"/>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="114"/>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="92" t="s">
+        <v>300</v>
+      </c>
       <c r="B168" s="66" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C168" s="69" t="s">
         <v>1</v>
       </c>
       <c r="D168" s="77"/>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="122" t="s">
-        <v>200</v>
-      </c>
-      <c r="B169" s="123" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="100" t="s">
+        <v>301</v>
+      </c>
+      <c r="B169" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C169" s="124"/>
-      <c r="D169" s="125"/>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="114"/>
+      <c r="C169" s="102"/>
+      <c r="D169" s="103"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="92" t="s">
+        <v>302</v>
+      </c>
       <c r="B170" s="66" t="s">
         <v>38</v>
       </c>
@@ -4013,565 +4548,644 @@
       </c>
       <c r="D170" s="77"/>
     </row>
-    <row r="171" spans="1:4" ht="30">
-      <c r="A171" s="114"/>
+    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="92" t="s">
+        <v>303</v>
+      </c>
       <c r="B171" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C171" s="138" t="s">
+        <v>159</v>
+      </c>
+      <c r="C171" s="116" t="s">
         <v>62</v>
       </c>
       <c r="D171" s="77"/>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="114"/>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="92" t="s">
+        <v>304</v>
+      </c>
       <c r="B172" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C172" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="D172" s="77"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="100" t="s">
+        <v>305</v>
+      </c>
+      <c r="B173" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="C173" s="102"/>
+      <c r="D173" s="103"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="B174" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C174" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D174" s="77"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="B175" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C175" s="113"/>
+      <c r="D175" s="103"/>
+    </row>
+    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="92" t="s">
+        <v>308</v>
+      </c>
+      <c r="B176" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="C176" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176" s="77"/>
+    </row>
+    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="92" t="s">
+        <v>309</v>
+      </c>
+      <c r="B177" s="119" t="s">
+        <v>41</v>
+      </c>
+      <c r="C177" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D177" s="77"/>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="92" t="s">
+        <v>310</v>
+      </c>
+      <c r="B178" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="C178" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D178" s="77"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="100" t="s">
+        <v>311</v>
+      </c>
+      <c r="B179" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="C179" s="109"/>
+      <c r="D179" s="103"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="B180" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C180" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180" s="77"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="96" t="s">
+        <v>313</v>
+      </c>
+      <c r="B181" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="C181" s="98"/>
+      <c r="D181" s="99"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="100" t="s">
+        <v>314</v>
+      </c>
+      <c r="B182" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C182" s="102"/>
+      <c r="D182" s="103"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="92" t="s">
+        <v>315</v>
+      </c>
+      <c r="B183" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C183" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183" s="77"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="92" t="s">
+        <v>316</v>
+      </c>
+      <c r="B184" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C184" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D184" s="77"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="92" t="s">
+        <v>317</v>
+      </c>
+      <c r="B185" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C185" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185" s="77"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="92" t="s">
+        <v>318</v>
+      </c>
+      <c r="B186" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C172" s="138" t="s">
-        <v>62</v>
-      </c>
-      <c r="D172" s="77"/>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="122" t="s">
-        <v>201</v>
-      </c>
-      <c r="B173" s="123" t="s">
-        <v>171</v>
-      </c>
-      <c r="C173" s="124"/>
-      <c r="D173" s="125"/>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="114"/>
-      <c r="B174" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="C174" s="139" t="s">
-        <v>1</v>
-      </c>
-      <c r="D174" s="77"/>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="122" t="s">
-        <v>202</v>
-      </c>
-      <c r="B175" s="123" t="s">
-        <v>172</v>
-      </c>
-      <c r="C175" s="135"/>
-      <c r="D175" s="125"/>
-    </row>
-    <row r="176" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A176" s="114"/>
-      <c r="B176" s="140" t="s">
-        <v>170</v>
-      </c>
-      <c r="C176" s="137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D176" s="77"/>
-    </row>
-    <row r="177" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A177" s="114"/>
-      <c r="B177" s="141" t="s">
-        <v>41</v>
-      </c>
-      <c r="C177" s="137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D177" s="77"/>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A178" s="114"/>
-      <c r="B178" s="142" t="s">
-        <v>39</v>
-      </c>
-      <c r="C178" s="137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D178" s="77"/>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="123"/>
-      <c r="B179" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="C179" s="131"/>
-      <c r="D179" s="125"/>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="66"/>
-      <c r="B180" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C180" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D180" s="77"/>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="118" t="s">
-        <v>191</v>
-      </c>
-      <c r="B181" s="119" t="s">
-        <v>147</v>
-      </c>
-      <c r="C181" s="120"/>
-      <c r="D181" s="121"/>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="122" t="s">
-        <v>203</v>
-      </c>
-      <c r="B182" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="C182" s="124"/>
-      <c r="D182" s="125"/>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="114"/>
-      <c r="B183" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="C183" s="139" t="s">
-        <v>1</v>
-      </c>
-      <c r="D183" s="77"/>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="114"/>
-      <c r="B184" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="C184" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="D184" s="77"/>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="114"/>
-      <c r="B185" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="C185" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D185" s="77"/>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="114"/>
-      <c r="B186" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="C186" s="139" t="s">
+      <c r="C186" s="117" t="s">
         <v>1</v>
       </c>
       <c r="D186" s="77"/>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="122" t="s">
-        <v>204</v>
-      </c>
-      <c r="B187" s="123" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="100" t="s">
+        <v>319</v>
+      </c>
+      <c r="B187" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C187" s="124"/>
-      <c r="D187" s="125"/>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="114"/>
+      <c r="C187" s="102"/>
+      <c r="D187" s="103"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="92" t="s">
+        <v>320</v>
+      </c>
       <c r="B188" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C188" s="139" t="s">
+      <c r="C188" s="117" t="s">
         <v>1</v>
       </c>
       <c r="D188" s="77"/>
     </row>
-    <row r="189" spans="1:4" ht="30">
-      <c r="A189" s="114"/>
+    <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="92" t="s">
+        <v>321</v>
+      </c>
       <c r="B189" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C189" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D189" s="77"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="92" t="s">
+        <v>322</v>
+      </c>
+      <c r="B190" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C189" s="112" t="s">
+      <c r="C190" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="D189" s="77"/>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="114"/>
-      <c r="B190" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="C190" s="112" t="s">
+      <c r="D190" s="77"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="100" t="s">
+        <v>323</v>
+      </c>
+      <c r="B191" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="C191" s="102"/>
+      <c r="D191" s="103"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="92" t="s">
+        <v>324</v>
+      </c>
+      <c r="B192" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C192" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="D190" s="77"/>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="122" t="s">
-        <v>205</v>
-      </c>
-      <c r="B191" s="123" t="s">
-        <v>160</v>
-      </c>
-      <c r="C191" s="124"/>
-      <c r="D191" s="125"/>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="114"/>
-      <c r="B192" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="C192" s="112" t="s">
+      <c r="D192" s="77"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="92" t="s">
+        <v>325</v>
+      </c>
+      <c r="B193" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C193" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="D192" s="77"/>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="114"/>
-      <c r="B193" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="C193" s="112" t="s">
+      <c r="D193" s="77"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="100" t="s">
+        <v>326</v>
+      </c>
+      <c r="B194" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="C194" s="102"/>
+      <c r="D194" s="103"/>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="92" t="s">
+        <v>327</v>
+      </c>
+      <c r="B195" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C195" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="D193" s="77"/>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="122" t="s">
-        <v>206</v>
-      </c>
-      <c r="B194" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="C194" s="124"/>
-      <c r="D194" s="125"/>
-    </row>
-    <row r="195" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A195" s="114"/>
-      <c r="B195" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="C195" s="112" t="s">
+      <c r="D195" s="77"/>
+    </row>
+    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="92" t="s">
+        <v>328</v>
+      </c>
+      <c r="B196" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C196" s="90"/>
+      <c r="D196" s="77"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="96" t="s">
+        <v>329</v>
+      </c>
+      <c r="B197" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="C197" s="98"/>
+      <c r="D197" s="99"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="100" t="s">
+        <v>330</v>
+      </c>
+      <c r="B198" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C198" s="102"/>
+      <c r="D198" s="103"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="92" t="s">
+        <v>331</v>
+      </c>
+      <c r="B199" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C199" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" s="77"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="92" t="s">
+        <v>332</v>
+      </c>
+      <c r="B200" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C200" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="D195" s="77"/>
-    </row>
-    <row r="196" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A196" s="114"/>
-      <c r="B196" s="115" t="s">
-        <v>218</v>
-      </c>
-      <c r="C196" s="112"/>
-      <c r="D196" s="77"/>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="118" t="s">
-        <v>192</v>
-      </c>
-      <c r="B197" s="119" t="s">
-        <v>149</v>
-      </c>
-      <c r="C197" s="120"/>
-      <c r="D197" s="121"/>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="122" t="s">
-        <v>203</v>
-      </c>
-      <c r="B198" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="C198" s="124"/>
-      <c r="D198" s="125"/>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="114"/>
-      <c r="B199" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="C199" s="139" t="s">
-        <v>1</v>
-      </c>
-      <c r="D199" s="77"/>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="114"/>
-      <c r="B200" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="C200" s="112" t="s">
-        <v>62</v>
-      </c>
       <c r="D200" s="77"/>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="114"/>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="92" t="s">
+        <v>333</v>
+      </c>
       <c r="B201" s="66" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C201" s="69" t="s">
         <v>1</v>
       </c>
       <c r="D201" s="77"/>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="114"/>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="92" t="s">
+        <v>334</v>
+      </c>
       <c r="B202" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="C202" s="139" t="s">
+        <v>167</v>
+      </c>
+      <c r="C202" s="117" t="s">
         <v>1</v>
       </c>
       <c r="D202" s="77"/>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="122" t="s">
-        <v>204</v>
-      </c>
-      <c r="B203" s="123" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="100" t="s">
+        <v>335</v>
+      </c>
+      <c r="B203" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C203" s="124"/>
-      <c r="D203" s="125"/>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="114"/>
+      <c r="C203" s="102"/>
+      <c r="D203" s="103"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="92" t="s">
+        <v>336</v>
+      </c>
       <c r="B204" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C204" s="139" t="s">
+      <c r="C204" s="117" t="s">
         <v>1</v>
       </c>
       <c r="D204" s="77"/>
     </row>
-    <row r="205" spans="1:4" ht="30">
-      <c r="A205" s="114"/>
+    <row r="205" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="92" t="s">
+        <v>337</v>
+      </c>
       <c r="B205" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C205" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D205" s="77"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="92" t="s">
+        <v>338</v>
+      </c>
+      <c r="B206" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C205" s="112" t="s">
+      <c r="C206" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="D205" s="77"/>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="114"/>
-      <c r="B206" s="66" t="s">
+      <c r="D206" s="77"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="100" t="s">
+        <v>339</v>
+      </c>
+      <c r="B207" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="C207" s="102"/>
+      <c r="D207" s="103"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="92" t="s">
+        <v>340</v>
+      </c>
+      <c r="B208" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C208" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D208" s="77"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="B209" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C209" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D209" s="77"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="100" t="s">
+        <v>342</v>
+      </c>
+      <c r="B210" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="C210" s="102"/>
+      <c r="D210" s="103"/>
+    </row>
+    <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="92" t="s">
+        <v>343</v>
+      </c>
+      <c r="B211" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C211" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D211" s="77"/>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="92" t="s">
+        <v>344</v>
+      </c>
+      <c r="B212" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C212" s="90"/>
+      <c r="D212" s="77"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="96" t="s">
+        <v>345</v>
+      </c>
+      <c r="B213" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C213" s="98"/>
+      <c r="D213" s="99"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="92" t="s">
+        <v>346</v>
+      </c>
+      <c r="B214" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C214" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D214" s="77"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="B215" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="C215" s="98"/>
+      <c r="D215" s="99"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="105" t="s">
+        <v>348</v>
+      </c>
+      <c r="B216" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C216" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D216" s="80"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="92" t="s">
+        <v>349</v>
+      </c>
+      <c r="B217" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C217" s="114" t="s">
+        <v>62</v>
+      </c>
+      <c r="D217" s="91"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="96" t="s">
+        <v>350</v>
+      </c>
+      <c r="B218" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C218" s="98"/>
+      <c r="D218" s="99"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="92" t="s">
+        <v>351</v>
+      </c>
+      <c r="B219" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C219" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D219" s="77"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="92" t="s">
+        <v>352</v>
+      </c>
+      <c r="B220" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C220" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D220" s="77"/>
+    </row>
+    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" s="92" t="s">
+        <v>353</v>
+      </c>
+      <c r="B221" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C221" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D221" s="77"/>
+    </row>
+    <row r="222" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="92" t="s">
+        <v>354</v>
+      </c>
+      <c r="B222" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C222" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D222" s="77"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="96" t="s">
+        <v>355</v>
+      </c>
+      <c r="B223" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C223" s="98"/>
+      <c r="D223" s="99"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="92" t="s">
+        <v>356</v>
+      </c>
+      <c r="B224" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="C206" s="112" t="s">
+      <c r="C224" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="D206" s="77"/>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="122" t="s">
-        <v>205</v>
-      </c>
-      <c r="B207" s="123" t="s">
-        <v>160</v>
-      </c>
-      <c r="C207" s="124"/>
-      <c r="D207" s="125"/>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="114"/>
-      <c r="B208" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="C208" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="D208" s="77"/>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="114"/>
-      <c r="B209" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="C209" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="D209" s="77"/>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="122" t="s">
-        <v>206</v>
-      </c>
-      <c r="B210" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="C210" s="124"/>
-      <c r="D210" s="125"/>
-    </row>
-    <row r="211" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A211" s="114"/>
-      <c r="B211" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="C211" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="D211" s="77"/>
-    </row>
-    <row r="212" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A212" s="114"/>
-      <c r="B212" s="115" t="s">
-        <v>218</v>
-      </c>
-      <c r="C212" s="112"/>
-      <c r="D212" s="77"/>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="118" t="s">
-        <v>193</v>
-      </c>
-      <c r="B213" s="126" t="s">
-        <v>152</v>
-      </c>
-      <c r="C213" s="120"/>
-      <c r="D213" s="121"/>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="114"/>
-      <c r="B214" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="C214" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="D214" s="77"/>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="118" t="s">
-        <v>194</v>
-      </c>
-      <c r="B215" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="C215" s="120"/>
-      <c r="D215" s="121"/>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="127"/>
-      <c r="B216" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="C216" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="D216" s="80"/>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="114"/>
-      <c r="B217" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="C217" s="136" t="s">
-        <v>62</v>
-      </c>
-      <c r="D217" s="113"/>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="118" t="s">
-        <v>195</v>
-      </c>
-      <c r="B218" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C218" s="120"/>
-      <c r="D218" s="121"/>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="114"/>
-      <c r="B219" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C219" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="D219" s="77"/>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="114"/>
-      <c r="B220" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="C220" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="D220" s="77"/>
-    </row>
-    <row r="221" spans="1:4" ht="30">
-      <c r="A221" s="114"/>
-      <c r="B221" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="C221" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="D221" s="77"/>
-    </row>
-    <row r="222" spans="1:4" ht="30">
-      <c r="A222" s="114"/>
-      <c r="B222" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C222" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="D222" s="77"/>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="118" t="s">
-        <v>196</v>
-      </c>
-      <c r="B223" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C223" s="120"/>
-      <c r="D223" s="121"/>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="114"/>
-      <c r="B224" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C224" s="112" t="s">
-        <v>62</v>
-      </c>
       <c r="D224" s="77"/>
     </row>
-    <row r="227" spans="2:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="143"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B227"/>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B228"/>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B229"/>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B230"/>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B231"/>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B232"/>
     </row>
-    <row r="233" spans="2:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B233"/>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B234"/>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B235"/>
     </row>
   </sheetData>
